--- a/ProtoConfig/Config/语言_版本检测.xlsx
+++ b/ProtoConfig/Config/语言_版本检测.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11925"/>
+    <workbookView windowWidth="24225" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="VerCheckLang#版本检测试文字" sheetId="6" r:id="rId1"/>
@@ -95,22 +95,22 @@
     <t>string</t>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>zh_cn</t>
-  </si>
-  <si>
-    <t>zh_tw</t>
-  </si>
-  <si>
-    <t>en</t>
-  </si>
-  <si>
-    <t>ja</t>
-  </si>
-  <si>
-    <t>ko</t>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Zh_cn</t>
+  </si>
+  <si>
+    <t>Zh_tw</t>
+  </si>
+  <si>
+    <t>En</t>
+  </si>
+  <si>
+    <t>Ja</t>
+  </si>
+  <si>
+    <t>Ko</t>
   </si>
   <si>
     <t>InitRes</t>
@@ -854,9 +854,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -870,15 +869,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -886,17 +877,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -909,9 +900,16 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -932,29 +930,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -969,7 +961,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -978,7 +970,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1018,79 +1018,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1102,97 +1186,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1341,30 +1341,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1382,9 +1358,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1421,11 +1399,33 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1437,10 +1437,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1449,16 +1449,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1467,115 +1467,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1927,12 +1927,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表1_45" displayName="表1_45" ref="A4:F78" totalsRowShown="0">
   <autoFilter ref="A4:F78"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="id" dataDxfId="0"/>
-    <tableColumn id="2" name="zh_cn" dataDxfId="1"/>
-    <tableColumn id="3" name="zh_tw" dataDxfId="2"/>
-    <tableColumn id="4" name="en" dataDxfId="3"/>
-    <tableColumn id="5" name="ja" dataDxfId="4"/>
-    <tableColumn id="6" name="ko" dataDxfId="5"/>
+    <tableColumn id="1" name="Id" dataDxfId="0"/>
+    <tableColumn id="2" name="Zh_cn" dataDxfId="1"/>
+    <tableColumn id="3" name="Zh_tw" dataDxfId="2"/>
+    <tableColumn id="4" name="En" dataDxfId="3"/>
+    <tableColumn id="5" name="Ja" dataDxfId="4"/>
+    <tableColumn id="6" name="Ko" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2201,7 +2201,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="16.5" customHeight="1" outlineLevelCol="7"/>

--- a/ProtoConfig/Config/语言_版本检测.xlsx
+++ b/ProtoConfig/Config/语言_版本检测.xlsx
@@ -8,7 +8,6 @@
   </bookViews>
   <sheets>
     <sheet name="VerCheckLang#版本检测试文字" sheetId="6" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -854,15 +853,9 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -877,37 +870,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -921,26 +884,47 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -953,7 +937,22 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -961,7 +960,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -978,20 +977,20 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1000,37 +999,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor theme="4" tint="0.799981688894314"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1042,182 +1185,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="19">
+  <borders count="18">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="4"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1332,11 +1310,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1352,32 +1360,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1401,6 +1383,17 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1409,23 +1402,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1437,10 +1415,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1449,16 +1427,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1467,126 +1445,123 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1599,22 +1574,26 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1624,54 +1603,50 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="32" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="32" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1679,19 +1654,19 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -2206,870 +2181,870 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="16.5" customHeight="1" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="31.5" style="4" customWidth="1"/>
-    <col min="2" max="2" width="46" style="4" customWidth="1"/>
-    <col min="3" max="3" width="31.625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="28.75" style="4" customWidth="1"/>
-    <col min="5" max="6" width="20.25" style="4" customWidth="1"/>
-    <col min="7" max="7" width="12.5" style="4" customWidth="1"/>
-    <col min="8" max="8" width="13.25" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="15.625" style="5"/>
+    <col min="1" max="1" width="31.5" style="3" customWidth="1"/>
+    <col min="2" max="2" width="46" style="3" customWidth="1"/>
+    <col min="3" max="3" width="31.625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="28.75" style="3" customWidth="1"/>
+    <col min="5" max="6" width="20.25" style="3" customWidth="1"/>
+    <col min="7" max="7" width="12.5" style="3" customWidth="1"/>
+    <col min="8" max="8" width="13.25" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="15.625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" ht="40.5" customHeight="1" spans="1:7">
-      <c r="A1" s="6" t="s">
+    <row r="1" s="1" customFormat="1" ht="40.5" customHeight="1" spans="1:7">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7"/>
+      <c r="G1" s="6"/>
     </row>
     <row r="2" customHeight="1" spans="1:8">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="9"/>
-      <c r="H2" s="5"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="4"/>
     </row>
     <row r="3" customHeight="1" spans="1:8">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="9"/>
-      <c r="H3" s="5"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="4"/>
     </row>
     <row r="4" customHeight="1" spans="1:8">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="9"/>
-      <c r="H4" s="5"/>
-    </row>
-    <row r="5" s="3" customFormat="1" ht="20.25" customHeight="1" spans="1:7">
-      <c r="A5" s="13" t="s">
+      <c r="G4" s="8"/>
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" s="2" customFormat="1" ht="20.25" customHeight="1" spans="1:7">
+      <c r="A5" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="17"/>
-    </row>
-    <row r="6" s="3" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A6" s="13" t="s">
+      <c r="E5" s="14"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="16"/>
+    </row>
+    <row r="6" s="2" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A6" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="19"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="17"/>
-    </row>
-    <row r="7" s="3" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A7" s="13" t="s">
+      <c r="E6" s="18"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="16"/>
+    </row>
+    <row r="7" s="2" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A7" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="17"/>
-    </row>
-    <row r="8" s="3" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A8" s="13" t="s">
+      <c r="G7" s="16"/>
+    </row>
+    <row r="8" s="2" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A8" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="E8" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="F8" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="17"/>
-    </row>
-    <row r="9" s="3" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A9" s="13" t="s">
+      <c r="G8" s="16"/>
+    </row>
+    <row r="9" s="2" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A9" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="19"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="17"/>
-    </row>
-    <row r="10" s="3" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A10" s="13" t="s">
+      <c r="E9" s="18"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="16"/>
+    </row>
+    <row r="10" s="2" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A10" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="19"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="17"/>
-    </row>
-    <row r="11" s="3" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A11" s="13" t="s">
+      <c r="E10" s="18"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="16"/>
+    </row>
+    <row r="11" s="2" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A11" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="E11" s="19"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="17"/>
-    </row>
-    <row r="12" s="3" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A12" s="13" t="s">
+      <c r="E11" s="18"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="16"/>
+    </row>
+    <row r="12" s="2" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A12" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="E12" s="19"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="17"/>
-    </row>
-    <row r="13" s="3" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A13" s="13" t="s">
+      <c r="E12" s="18"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="16"/>
+    </row>
+    <row r="13" s="2" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A13" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="E13" s="19"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="17"/>
-    </row>
-    <row r="14" s="3" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A14" s="13" t="s">
+      <c r="E13" s="18"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="16"/>
+    </row>
+    <row r="14" s="2" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A14" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="E14" s="19"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="17"/>
-    </row>
-    <row r="15" s="3" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A15" s="13" t="s">
+      <c r="E14" s="18"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="16"/>
+    </row>
+    <row r="15" s="2" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A15" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="D15" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="E15" s="19"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="17"/>
-    </row>
-    <row r="16" s="3" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A16" s="13" t="s">
+      <c r="E15" s="18"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="16"/>
+    </row>
+    <row r="16" s="2" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A16" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="E16" s="19"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="17"/>
-    </row>
-    <row r="17" s="3" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A17" s="13" t="s">
+      <c r="E16" s="18"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="16"/>
+    </row>
+    <row r="17" s="2" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A17" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="D17" s="19" t="s">
+      <c r="D17" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="E17" s="19"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="17"/>
-    </row>
-    <row r="18" s="3" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A18" s="21" t="s">
+      <c r="E17" s="18"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="16"/>
+    </row>
+    <row r="18" s="2" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A18" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="D18" s="19" t="s">
+      <c r="D18" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="E18" s="19"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="17"/>
-    </row>
-    <row r="19" s="3" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A19" s="22" t="s">
+      <c r="E18" s="18"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="16"/>
+    </row>
+    <row r="19" s="2" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A19" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="D19" s="19" t="s">
+      <c r="D19" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="E19" s="19"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="17"/>
-    </row>
-    <row r="20" s="3" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A20" s="22" t="s">
+      <c r="E19" s="18"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="16"/>
+    </row>
+    <row r="20" s="2" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A20" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="D20" s="19" t="s">
+      <c r="D20" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="E20" s="19"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="17"/>
-    </row>
-    <row r="21" s="3" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A21" s="22" t="s">
+      <c r="E20" s="18"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="16"/>
+    </row>
+    <row r="21" s="2" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A21" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="D21" s="19" t="s">
+      <c r="D21" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="E21" s="19"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="17"/>
-    </row>
-    <row r="22" s="3" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A22" s="13"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="17"/>
-    </row>
-    <row r="23" s="3" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A23" s="13"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="17"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="16"/>
+    </row>
+    <row r="22" s="2" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A22" s="12"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="16"/>
+    </row>
+    <row r="23" s="2" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A23" s="12"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="16"/>
     </row>
     <row r="25" customHeight="1" spans="1:6">
-      <c r="A25" s="13"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="20"/>
+      <c r="A25" s="12"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="19"/>
     </row>
     <row r="26" customHeight="1" spans="1:6">
-      <c r="A26" s="13"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="20"/>
+      <c r="A26" s="12"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="19"/>
     </row>
     <row r="27" customHeight="1" spans="1:6">
-      <c r="A27" s="13"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="20"/>
+      <c r="A27" s="12"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="19"/>
     </row>
     <row r="28" customHeight="1" spans="1:6">
-      <c r="A28" s="13"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="20"/>
+      <c r="A28" s="12"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="19"/>
     </row>
     <row r="29" customHeight="1" spans="1:6">
-      <c r="A29" s="13"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="20"/>
+      <c r="A29" s="12"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="19"/>
     </row>
     <row r="30" customHeight="1" spans="1:6">
-      <c r="A30" s="13"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="23"/>
-    </row>
-    <row r="31" s="3" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A31" s="13"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="17"/>
+      <c r="A30" s="12"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="22"/>
+    </row>
+    <row r="31" s="2" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A31" s="12"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="16"/>
     </row>
     <row r="32" customHeight="1" spans="1:6">
-      <c r="A32" s="13"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="20"/>
-    </row>
-    <row r="33" s="3" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A33" s="13"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="25"/>
-    </row>
-    <row r="34" s="3" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A34" s="13"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="25"/>
-    </row>
-    <row r="35" s="3" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A35" s="13"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="25"/>
-      <c r="H35" s="25"/>
-    </row>
-    <row r="36" s="3" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A36" s="13"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="25"/>
-    </row>
-    <row r="37" s="3" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A37" s="13"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="25"/>
-      <c r="H37" s="25"/>
-    </row>
-    <row r="38" s="3" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A38" s="13"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="24"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="25"/>
-    </row>
-    <row r="39" s="3" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A39" s="13"/>
-      <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="24"/>
-      <c r="G39" s="25"/>
-      <c r="H39" s="25"/>
-    </row>
-    <row r="40" s="3" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A40" s="13"/>
-      <c r="B40" s="18"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="25"/>
-      <c r="H40" s="25"/>
-    </row>
-    <row r="41" s="3" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A41" s="13"/>
-      <c r="B41" s="18"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="24"/>
-      <c r="G41" s="25"/>
-      <c r="H41" s="25"/>
-    </row>
-    <row r="42" s="3" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A42" s="13"/>
-      <c r="B42" s="18"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="24"/>
-      <c r="G42" s="25"/>
-      <c r="H42" s="25"/>
-    </row>
-    <row r="43" s="3" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A43" s="13"/>
-      <c r="B43" s="18"/>
-      <c r="C43" s="19"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="24"/>
-      <c r="G43" s="25"/>
-      <c r="H43" s="25"/>
-    </row>
-    <row r="44" s="3" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A44" s="13"/>
-      <c r="B44" s="18"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="19"/>
-      <c r="E44" s="19"/>
-      <c r="F44" s="24"/>
-      <c r="G44" s="25"/>
-      <c r="H44" s="25"/>
-    </row>
-    <row r="45" s="3" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A45" s="13"/>
-      <c r="B45" s="18"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="18"/>
-      <c r="F45" s="24"/>
-      <c r="G45" s="25"/>
-      <c r="H45" s="25"/>
-    </row>
-    <row r="46" s="3" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A46" s="13"/>
-      <c r="B46" s="18"/>
-      <c r="C46" s="18"/>
-      <c r="D46" s="19"/>
-      <c r="E46" s="18"/>
-      <c r="F46" s="24"/>
-      <c r="G46" s="25"/>
-      <c r="H46" s="25"/>
-    </row>
-    <row r="47" s="3" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A47" s="13"/>
-      <c r="B47" s="18"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="19"/>
-      <c r="E47" s="18"/>
-      <c r="F47" s="24"/>
-      <c r="G47" s="25"/>
-      <c r="H47" s="25"/>
+      <c r="A32" s="12"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="19"/>
+    </row>
+    <row r="33" s="2" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A33" s="12"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
+    </row>
+    <row r="34" s="2" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A34" s="12"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="24"/>
+    </row>
+    <row r="35" s="2" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A35" s="12"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="24"/>
+    </row>
+    <row r="36" s="2" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A36" s="12"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="24"/>
+    </row>
+    <row r="37" s="2" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A37" s="12"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="24"/>
+    </row>
+    <row r="38" s="2" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A38" s="12"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="24"/>
+    </row>
+    <row r="39" s="2" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A39" s="12"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="24"/>
+    </row>
+    <row r="40" s="2" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A40" s="12"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="24"/>
+    </row>
+    <row r="41" s="2" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A41" s="12"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="24"/>
+      <c r="H41" s="24"/>
+    </row>
+    <row r="42" s="2" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A42" s="12"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="24"/>
+      <c r="H42" s="24"/>
+    </row>
+    <row r="43" s="2" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A43" s="12"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="24"/>
+      <c r="H43" s="24"/>
+    </row>
+    <row r="44" s="2" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A44" s="12"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="24"/>
+      <c r="H44" s="24"/>
+    </row>
+    <row r="45" s="2" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A45" s="12"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="23"/>
+      <c r="G45" s="24"/>
+      <c r="H45" s="24"/>
+    </row>
+    <row r="46" s="2" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A46" s="12"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="23"/>
+      <c r="G46" s="24"/>
+      <c r="H46" s="24"/>
+    </row>
+    <row r="47" s="2" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A47" s="12"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="18"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="23"/>
+      <c r="G47" s="24"/>
+      <c r="H47" s="24"/>
     </row>
     <row r="48" customHeight="1" spans="1:6">
-      <c r="A48" s="26"/>
-      <c r="B48" s="27"/>
-      <c r="C48" s="28"/>
-      <c r="D48" s="28"/>
-      <c r="E48" s="28"/>
-      <c r="F48" s="29"/>
+      <c r="A48" s="25"/>
+      <c r="B48" s="26"/>
+      <c r="C48" s="27"/>
+      <c r="D48" s="27"/>
+      <c r="E48" s="27"/>
+      <c r="F48" s="28"/>
     </row>
     <row r="49" customHeight="1" spans="1:6">
-      <c r="A49" s="13"/>
-      <c r="B49" s="18"/>
-      <c r="C49" s="19"/>
-      <c r="D49" s="19"/>
-      <c r="E49" s="19"/>
-      <c r="F49" s="29"/>
+      <c r="A49" s="12"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="18"/>
+      <c r="D49" s="18"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="28"/>
     </row>
     <row r="50" customHeight="1" spans="1:6">
-      <c r="A50" s="13"/>
-      <c r="B50" s="18"/>
-      <c r="C50" s="19"/>
-      <c r="D50" s="19"/>
-      <c r="E50" s="19"/>
-      <c r="F50" s="20"/>
+      <c r="A50" s="12"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="18"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="19"/>
     </row>
     <row r="51" customHeight="1" spans="1:6">
-      <c r="A51" s="13"/>
-      <c r="B51" s="18"/>
-      <c r="C51" s="19"/>
-      <c r="D51" s="19"/>
-      <c r="E51" s="19"/>
-      <c r="F51" s="20"/>
+      <c r="A51" s="12"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="18"/>
+      <c r="D51" s="18"/>
+      <c r="E51" s="18"/>
+      <c r="F51" s="19"/>
     </row>
     <row r="52" customHeight="1" spans="1:6">
-      <c r="A52" s="13"/>
-      <c r="B52" s="18"/>
-      <c r="C52" s="19"/>
-      <c r="D52" s="19"/>
-      <c r="E52" s="19"/>
-      <c r="F52" s="20"/>
+      <c r="A52" s="12"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="18"/>
+      <c r="E52" s="18"/>
+      <c r="F52" s="19"/>
     </row>
     <row r="53" customHeight="1" spans="2:2">
-      <c r="B53" s="30"/>
+      <c r="B53" s="29"/>
     </row>
     <row r="54" customHeight="1" spans="2:2">
-      <c r="B54" s="30"/>
+      <c r="B54" s="29"/>
     </row>
     <row r="55" customHeight="1" spans="1:6">
-      <c r="A55" s="13"/>
-      <c r="B55" s="18"/>
-      <c r="C55" s="19"/>
-      <c r="D55" s="19"/>
-      <c r="E55" s="19"/>
-      <c r="F55" s="20"/>
+      <c r="A55" s="12"/>
+      <c r="B55" s="17"/>
+      <c r="C55" s="18"/>
+      <c r="D55" s="18"/>
+      <c r="E55" s="18"/>
+      <c r="F55" s="19"/>
     </row>
     <row r="56" customHeight="1" spans="1:6">
-      <c r="A56" s="13"/>
-      <c r="B56" s="19"/>
-      <c r="C56" s="19"/>
-      <c r="D56" s="19"/>
-      <c r="E56" s="19"/>
-      <c r="F56" s="20"/>
+      <c r="A56" s="12"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="18"/>
+      <c r="D56" s="18"/>
+      <c r="E56" s="18"/>
+      <c r="F56" s="19"/>
     </row>
     <row r="57" customHeight="1" spans="1:6">
-      <c r="A57" s="13"/>
-      <c r="B57" s="18"/>
-      <c r="C57" s="19"/>
-      <c r="D57" s="19"/>
-      <c r="E57" s="19"/>
-      <c r="F57" s="29"/>
+      <c r="A57" s="12"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="18"/>
+      <c r="D57" s="18"/>
+      <c r="E57" s="18"/>
+      <c r="F57" s="28"/>
     </row>
     <row r="58" customHeight="1" spans="1:6">
-      <c r="A58" s="13"/>
-      <c r="B58" s="18"/>
-      <c r="C58" s="19"/>
-      <c r="D58" s="19"/>
-      <c r="E58" s="19"/>
-      <c r="F58" s="29"/>
+      <c r="A58" s="12"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="18"/>
+      <c r="D58" s="18"/>
+      <c r="E58" s="18"/>
+      <c r="F58" s="28"/>
     </row>
     <row r="59" customHeight="1" spans="1:6">
-      <c r="A59" s="13"/>
-      <c r="B59" s="19"/>
-      <c r="C59" s="19"/>
-      <c r="D59" s="19"/>
-      <c r="E59" s="19"/>
-      <c r="F59" s="20"/>
+      <c r="A59" s="12"/>
+      <c r="B59" s="18"/>
+      <c r="C59" s="18"/>
+      <c r="D59" s="18"/>
+      <c r="E59" s="18"/>
+      <c r="F59" s="19"/>
     </row>
     <row r="60" customHeight="1" spans="1:6">
-      <c r="A60" s="13"/>
-      <c r="B60" s="18"/>
-      <c r="C60" s="19"/>
-      <c r="D60" s="19"/>
-      <c r="E60" s="19"/>
-      <c r="F60" s="20"/>
+      <c r="A60" s="12"/>
+      <c r="B60" s="17"/>
+      <c r="C60" s="18"/>
+      <c r="D60" s="18"/>
+      <c r="E60" s="18"/>
+      <c r="F60" s="19"/>
     </row>
     <row r="61" customHeight="1" spans="1:6">
-      <c r="A61" s="13"/>
-      <c r="B61" s="18"/>
-      <c r="C61" s="19"/>
-      <c r="D61" s="19"/>
-      <c r="E61" s="19"/>
-      <c r="F61" s="20"/>
+      <c r="A61" s="12"/>
+      <c r="B61" s="17"/>
+      <c r="C61" s="18"/>
+      <c r="D61" s="18"/>
+      <c r="E61" s="18"/>
+      <c r="F61" s="19"/>
     </row>
     <row r="62" customHeight="1" spans="1:6">
-      <c r="A62" s="13"/>
-      <c r="B62" s="18"/>
-      <c r="C62" s="19"/>
-      <c r="D62" s="19"/>
-      <c r="E62" s="19"/>
-      <c r="F62" s="20"/>
+      <c r="A62" s="12"/>
+      <c r="B62" s="17"/>
+      <c r="C62" s="18"/>
+      <c r="D62" s="18"/>
+      <c r="E62" s="18"/>
+      <c r="F62" s="19"/>
     </row>
     <row r="63" customHeight="1" spans="1:6">
-      <c r="A63" s="13"/>
-      <c r="B63" s="18"/>
-      <c r="C63" s="19"/>
-      <c r="D63" s="19"/>
-      <c r="E63" s="19"/>
-      <c r="F63" s="20"/>
+      <c r="A63" s="12"/>
+      <c r="B63" s="17"/>
+      <c r="C63" s="18"/>
+      <c r="D63" s="18"/>
+      <c r="E63" s="18"/>
+      <c r="F63" s="19"/>
     </row>
     <row r="64" customHeight="1" spans="1:6">
-      <c r="A64" s="13"/>
-      <c r="B64" s="19"/>
-      <c r="C64" s="19"/>
-      <c r="D64" s="19"/>
-      <c r="E64" s="19"/>
-      <c r="F64" s="29"/>
+      <c r="A64" s="12"/>
+      <c r="B64" s="18"/>
+      <c r="C64" s="18"/>
+      <c r="D64" s="18"/>
+      <c r="E64" s="18"/>
+      <c r="F64" s="28"/>
     </row>
     <row r="65" customHeight="1" spans="1:6">
-      <c r="A65" s="13"/>
-      <c r="B65" s="18"/>
-      <c r="C65" s="19"/>
-      <c r="D65" s="19"/>
-      <c r="E65" s="19"/>
-      <c r="F65" s="29"/>
+      <c r="A65" s="12"/>
+      <c r="B65" s="17"/>
+      <c r="C65" s="18"/>
+      <c r="D65" s="18"/>
+      <c r="E65" s="18"/>
+      <c r="F65" s="28"/>
     </row>
     <row r="66" customHeight="1" spans="1:6">
-      <c r="A66" s="13"/>
-      <c r="B66" s="18"/>
-      <c r="C66" s="19"/>
-      <c r="D66" s="19"/>
-      <c r="E66" s="19"/>
-      <c r="F66" s="29"/>
+      <c r="A66" s="12"/>
+      <c r="B66" s="17"/>
+      <c r="C66" s="18"/>
+      <c r="D66" s="18"/>
+      <c r="E66" s="18"/>
+      <c r="F66" s="28"/>
     </row>
     <row r="67" customHeight="1" spans="1:6">
-      <c r="A67" s="13"/>
-      <c r="B67" s="18"/>
-      <c r="C67" s="19"/>
-      <c r="D67" s="19"/>
-      <c r="E67" s="19"/>
-      <c r="F67" s="29"/>
+      <c r="A67" s="12"/>
+      <c r="B67" s="17"/>
+      <c r="C67" s="18"/>
+      <c r="D67" s="18"/>
+      <c r="E67" s="18"/>
+      <c r="F67" s="28"/>
     </row>
     <row r="68" customHeight="1" spans="1:6">
-      <c r="A68" s="13"/>
-      <c r="B68" s="19"/>
-      <c r="C68" s="19"/>
-      <c r="D68" s="19"/>
-      <c r="E68" s="19"/>
-      <c r="F68" s="29"/>
+      <c r="A68" s="12"/>
+      <c r="B68" s="18"/>
+      <c r="C68" s="18"/>
+      <c r="D68" s="18"/>
+      <c r="E68" s="18"/>
+      <c r="F68" s="28"/>
     </row>
     <row r="69" customHeight="1" spans="1:6">
-      <c r="A69" s="13"/>
-      <c r="B69" s="18"/>
-      <c r="C69" s="19"/>
-      <c r="D69" s="19"/>
-      <c r="E69" s="19"/>
-      <c r="F69" s="29"/>
+      <c r="A69" s="12"/>
+      <c r="B69" s="17"/>
+      <c r="C69" s="18"/>
+      <c r="D69" s="18"/>
+      <c r="E69" s="18"/>
+      <c r="F69" s="28"/>
     </row>
     <row r="70" customHeight="1" spans="1:6">
-      <c r="A70" s="13"/>
-      <c r="B70" s="18"/>
-      <c r="C70" s="19"/>
-      <c r="D70" s="19"/>
-      <c r="E70" s="19"/>
-      <c r="F70" s="20"/>
+      <c r="A70" s="12"/>
+      <c r="B70" s="17"/>
+      <c r="C70" s="18"/>
+      <c r="D70" s="18"/>
+      <c r="E70" s="18"/>
+      <c r="F70" s="19"/>
     </row>
     <row r="71" customHeight="1" spans="1:6">
-      <c r="A71" s="13"/>
-      <c r="B71" s="19"/>
-      <c r="C71" s="19"/>
-      <c r="D71" s="19"/>
-      <c r="E71" s="19"/>
-      <c r="F71" s="20"/>
+      <c r="A71" s="12"/>
+      <c r="B71" s="18"/>
+      <c r="C71" s="18"/>
+      <c r="D71" s="18"/>
+      <c r="E71" s="18"/>
+      <c r="F71" s="19"/>
     </row>
     <row r="72" customHeight="1" spans="1:6">
-      <c r="A72" s="13"/>
-      <c r="B72" s="19"/>
-      <c r="C72" s="19"/>
-      <c r="D72" s="19"/>
-      <c r="E72" s="19"/>
-      <c r="F72" s="20"/>
+      <c r="A72" s="12"/>
+      <c r="B72" s="18"/>
+      <c r="C72" s="18"/>
+      <c r="D72" s="18"/>
+      <c r="E72" s="18"/>
+      <c r="F72" s="19"/>
     </row>
     <row r="73" customHeight="1" spans="1:6">
-      <c r="A73" s="13"/>
-      <c r="B73" s="19"/>
-      <c r="C73" s="19"/>
-      <c r="D73" s="19"/>
-      <c r="E73" s="19"/>
-      <c r="F73" s="20"/>
+      <c r="A73" s="12"/>
+      <c r="B73" s="18"/>
+      <c r="C73" s="18"/>
+      <c r="D73" s="18"/>
+      <c r="E73" s="18"/>
+      <c r="F73" s="19"/>
     </row>
     <row r="74" customHeight="1" spans="1:6">
-      <c r="A74" s="13"/>
-      <c r="B74" s="19"/>
-      <c r="C74" s="19"/>
-      <c r="D74" s="19"/>
-      <c r="E74" s="19"/>
-      <c r="F74" s="20"/>
+      <c r="A74" s="12"/>
+      <c r="B74" s="18"/>
+      <c r="C74" s="18"/>
+      <c r="D74" s="18"/>
+      <c r="E74" s="18"/>
+      <c r="F74" s="19"/>
     </row>
     <row r="75" customHeight="1" spans="1:6">
-      <c r="A75" s="13"/>
-      <c r="B75" s="19"/>
-      <c r="C75" s="19"/>
-      <c r="D75" s="19"/>
-      <c r="E75" s="19"/>
-      <c r="F75" s="20"/>
+      <c r="A75" s="12"/>
+      <c r="B75" s="18"/>
+      <c r="C75" s="18"/>
+      <c r="D75" s="18"/>
+      <c r="E75" s="18"/>
+      <c r="F75" s="19"/>
     </row>
     <row r="76" customHeight="1" spans="1:6">
-      <c r="A76" s="13"/>
-      <c r="B76" s="19"/>
-      <c r="C76" s="19"/>
-      <c r="D76" s="19"/>
-      <c r="E76" s="19"/>
-      <c r="F76" s="20"/>
+      <c r="A76" s="12"/>
+      <c r="B76" s="18"/>
+      <c r="C76" s="18"/>
+      <c r="D76" s="18"/>
+      <c r="E76" s="18"/>
+      <c r="F76" s="19"/>
     </row>
     <row r="77" customHeight="1" spans="1:6">
-      <c r="A77" s="13"/>
-      <c r="B77" s="19"/>
-      <c r="C77" s="19"/>
-      <c r="D77" s="19"/>
-      <c r="E77" s="19"/>
-      <c r="F77" s="29"/>
+      <c r="A77" s="12"/>
+      <c r="B77" s="18"/>
+      <c r="C77" s="18"/>
+      <c r="D77" s="18"/>
+      <c r="E77" s="18"/>
+      <c r="F77" s="28"/>
     </row>
     <row r="78" customHeight="1" spans="1:6">
-      <c r="A78" s="13"/>
-      <c r="B78" s="19"/>
-      <c r="C78" s="19"/>
-      <c r="D78" s="19"/>
-      <c r="E78" s="19"/>
-      <c r="F78" s="29"/>
+      <c r="A78" s="12"/>
+      <c r="B78" s="18"/>
+      <c r="C78" s="18"/>
+      <c r="D78" s="18"/>
+      <c r="E78" s="18"/>
+      <c r="F78" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3079,25 +3054,4 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
 </file>